--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf15-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf15-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,7 +91,7 @@
     <t>Fgfr3</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.029478</v>
+        <v>0.117734</v>
       </c>
       <c r="H2">
-        <v>0.088434</v>
+        <v>0.353202</v>
       </c>
       <c r="I2">
-        <v>0.1535387136874709</v>
+        <v>0.6076081328197709</v>
       </c>
       <c r="J2">
-        <v>0.1535387136874709</v>
+        <v>0.6076081328197709</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.243417666666667</v>
+        <v>4.618552666666667</v>
       </c>
       <c r="N2">
-        <v>15.730253</v>
+        <v>13.855658</v>
       </c>
       <c r="O2">
-        <v>0.8253998362974575</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="P2">
-        <v>0.8253998362974574</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="Q2">
-        <v>0.154565465978</v>
+        <v>0.5437606796573334</v>
       </c>
       <c r="R2">
-        <v>1.391089193802</v>
+        <v>4.893846116916</v>
       </c>
       <c r="S2">
-        <v>0.1267308291429607</v>
+        <v>0.4765753059920841</v>
       </c>
       <c r="T2">
-        <v>0.1267308291429607</v>
+        <v>0.4765753059920841</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.029478</v>
+        <v>0.117734</v>
       </c>
       <c r="H3">
-        <v>0.088434</v>
+        <v>0.353202</v>
       </c>
       <c r="I3">
-        <v>0.1535387136874709</v>
+        <v>0.6076081328197709</v>
       </c>
       <c r="J3">
-        <v>0.1535387136874709</v>
+        <v>0.6076081328197709</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +623,22 @@
         <v>2.037896</v>
       </c>
       <c r="O3">
-        <v>0.1069327381315001</v>
+        <v>0.1153620112191035</v>
       </c>
       <c r="P3">
-        <v>0.1069327381315001</v>
+        <v>0.1153620112191036</v>
       </c>
       <c r="Q3">
-        <v>0.020024366096</v>
+        <v>0.07997654922133333</v>
       </c>
       <c r="R3">
-        <v>0.180219294864</v>
+        <v>0.719788942992</v>
       </c>
       <c r="S3">
-        <v>0.01641831506378969</v>
+        <v>0.07009489623517295</v>
       </c>
       <c r="T3">
-        <v>0.01641831506378969</v>
+        <v>0.07009489623517297</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.029478</v>
+        <v>0.117734</v>
       </c>
       <c r="H4">
-        <v>0.088434</v>
+        <v>0.353202</v>
       </c>
       <c r="I4">
-        <v>0.1535387136874709</v>
+        <v>0.6076081328197709</v>
       </c>
       <c r="J4">
-        <v>0.1535387136874709</v>
+        <v>0.6076081328197709</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,90 +679,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4298626666666667</v>
+        <v>0.478937</v>
       </c>
       <c r="N4">
-        <v>1.289588</v>
+        <v>1.436811</v>
       </c>
       <c r="O4">
-        <v>0.06766742557104236</v>
+        <v>0.0813355572127976</v>
       </c>
       <c r="P4">
-        <v>0.06766742557104236</v>
+        <v>0.08133555721279762</v>
       </c>
       <c r="Q4">
-        <v>0.012671491688</v>
+        <v>0.056387168758</v>
       </c>
       <c r="R4">
-        <v>0.114043425192</v>
+        <v>0.5074845188220001</v>
       </c>
       <c r="S4">
-        <v>0.01038956948072052</v>
+        <v>0.0494201460499236</v>
       </c>
       <c r="T4">
-        <v>0.01038956948072052</v>
+        <v>0.04942014604992361</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1625126666666667</v>
+        <v>0.117734</v>
       </c>
       <c r="H5">
-        <v>0.487538</v>
+        <v>0.353202</v>
       </c>
       <c r="I5">
-        <v>0.846461286312529</v>
+        <v>0.6076081328197709</v>
       </c>
       <c r="J5">
-        <v>0.846461286312529</v>
+        <v>0.6076081328197709</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>5.243417666666667</v>
+        <v>0.1116203333333333</v>
       </c>
       <c r="N5">
-        <v>15.730253</v>
+        <v>0.334861</v>
       </c>
       <c r="O5">
-        <v>0.8253998362974575</v>
+        <v>0.01895594202983873</v>
       </c>
       <c r="P5">
-        <v>0.8253998362974574</v>
+        <v>0.01895594202983874</v>
       </c>
       <c r="Q5">
-        <v>0.8521217874571111</v>
+        <v>0.01314150832466667</v>
       </c>
       <c r="R5">
-        <v>7.669096087114</v>
+        <v>0.118273574922</v>
       </c>
       <c r="S5">
-        <v>0.6986690071544968</v>
+        <v>0.01151778454259013</v>
       </c>
       <c r="T5">
-        <v>0.6986690071544966</v>
+        <v>0.01151778454259013</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.029478</v>
+      </c>
+      <c r="H6">
+        <v>0.088434</v>
+      </c>
+      <c r="I6">
+        <v>0.1521316912638762</v>
+      </c>
+      <c r="J6">
+        <v>0.1521316912638762</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.1625126666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.487538</v>
-      </c>
-      <c r="I6">
-        <v>0.846461286312529</v>
-      </c>
-      <c r="J6">
-        <v>0.846461286312529</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6792986666666666</v>
+        <v>4.618552666666667</v>
       </c>
       <c r="N6">
-        <v>2.037896</v>
+        <v>13.855658</v>
       </c>
       <c r="O6">
-        <v>0.1069327381315001</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="P6">
-        <v>0.1069327381315001</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="Q6">
-        <v>0.1103946377831111</v>
+        <v>0.136145695508</v>
       </c>
       <c r="R6">
-        <v>0.9935517400480001</v>
+        <v>1.225311259572</v>
       </c>
       <c r="S6">
-        <v>0.09051442306771036</v>
+        <v>0.1193239579903397</v>
       </c>
       <c r="T6">
-        <v>0.09051442306771036</v>
+        <v>0.1193239579903397</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,433 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.029478</v>
+      </c>
+      <c r="H7">
+        <v>0.088434</v>
+      </c>
+      <c r="I7">
+        <v>0.1521316912638762</v>
+      </c>
+      <c r="J7">
+        <v>0.1521316912638762</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.6792986666666666</v>
+      </c>
+      <c r="N7">
+        <v>2.037896</v>
+      </c>
+      <c r="O7">
+        <v>0.1153620112191035</v>
+      </c>
+      <c r="P7">
+        <v>0.1153620112191036</v>
+      </c>
+      <c r="Q7">
+        <v>0.020024366096</v>
+      </c>
+      <c r="R7">
+        <v>0.180219294864</v>
+      </c>
+      <c r="S7">
+        <v>0.01755021787436448</v>
+      </c>
+      <c r="T7">
+        <v>0.01755021787436449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.029478</v>
+      </c>
+      <c r="H8">
+        <v>0.088434</v>
+      </c>
+      <c r="I8">
+        <v>0.1521316912638762</v>
+      </c>
+      <c r="J8">
+        <v>0.1521316912638762</v>
+      </c>
+      <c r="K8">
         <v>3</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.1625126666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.487538</v>
-      </c>
-      <c r="I7">
-        <v>0.846461286312529</v>
-      </c>
-      <c r="J7">
-        <v>0.846461286312529</v>
-      </c>
-      <c r="K7">
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.478937</v>
+      </c>
+      <c r="N8">
+        <v>1.436811</v>
+      </c>
+      <c r="O8">
+        <v>0.0813355572127976</v>
+      </c>
+      <c r="P8">
+        <v>0.08133555721279762</v>
+      </c>
+      <c r="Q8">
+        <v>0.014118104886</v>
+      </c>
+      <c r="R8">
+        <v>0.127062943974</v>
+      </c>
+      <c r="S8">
+        <v>0.01237371587867267</v>
+      </c>
+      <c r="T8">
+        <v>0.01237371587867267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.029478</v>
+      </c>
+      <c r="H9">
+        <v>0.088434</v>
+      </c>
+      <c r="I9">
+        <v>0.1521316912638762</v>
+      </c>
+      <c r="J9">
+        <v>0.1521316912638762</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.1116203333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.334861</v>
+      </c>
+      <c r="O9">
+        <v>0.01895594202983873</v>
+      </c>
+      <c r="P9">
+        <v>0.01895594202983874</v>
+      </c>
+      <c r="Q9">
+        <v>0.003290344186</v>
+      </c>
+      <c r="R9">
+        <v>0.029613097674</v>
+      </c>
+      <c r="S9">
+        <v>0.002883799520499361</v>
+      </c>
+      <c r="T9">
+        <v>0.002883799520499362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.04655433333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.139663</v>
+      </c>
+      <c r="I10">
+        <v>0.2402601759163528</v>
+      </c>
+      <c r="J10">
+        <v>0.2402601759163529</v>
+      </c>
+      <c r="K10">
         <v>3</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.4298626666666667</v>
-      </c>
-      <c r="N7">
-        <v>1.289588</v>
-      </c>
-      <c r="O7">
-        <v>0.06766742557104236</v>
-      </c>
-      <c r="P7">
-        <v>0.06766742557104236</v>
-      </c>
-      <c r="Q7">
-        <v>0.06985812826044445</v>
-      </c>
-      <c r="R7">
-        <v>0.6287231543440002</v>
-      </c>
-      <c r="S7">
-        <v>0.05727785609032184</v>
-      </c>
-      <c r="T7">
-        <v>0.05727785609032184</v>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.618552666666667</v>
+      </c>
+      <c r="N10">
+        <v>13.855658</v>
+      </c>
+      <c r="O10">
+        <v>0.78434648953826</v>
+      </c>
+      <c r="P10">
+        <v>0.78434648953826</v>
+      </c>
+      <c r="Q10">
+        <v>0.2150136403615556</v>
+      </c>
+      <c r="R10">
+        <v>1.935122763254</v>
+      </c>
+      <c r="S10">
+        <v>0.1884472255558362</v>
+      </c>
+      <c r="T10">
+        <v>0.1884472255558362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.04655433333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.139663</v>
+      </c>
+      <c r="I11">
+        <v>0.2402601759163528</v>
+      </c>
+      <c r="J11">
+        <v>0.2402601759163529</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.6792986666666666</v>
+      </c>
+      <c r="N11">
+        <v>2.037896</v>
+      </c>
+      <c r="O11">
+        <v>0.1153620112191035</v>
+      </c>
+      <c r="P11">
+        <v>0.1153620112191036</v>
+      </c>
+      <c r="Q11">
+        <v>0.03162429656088889</v>
+      </c>
+      <c r="R11">
+        <v>0.284618669048</v>
+      </c>
+      <c r="S11">
+        <v>0.02771689710956608</v>
+      </c>
+      <c r="T11">
+        <v>0.02771689710956609</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.04655433333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.139663</v>
+      </c>
+      <c r="I12">
+        <v>0.2402601759163528</v>
+      </c>
+      <c r="J12">
+        <v>0.2402601759163529</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.478937</v>
+      </c>
+      <c r="N12">
+        <v>1.436811</v>
+      </c>
+      <c r="O12">
+        <v>0.0813355572127976</v>
+      </c>
+      <c r="P12">
+        <v>0.08133555721279762</v>
+      </c>
+      <c r="Q12">
+        <v>0.02229659274366667</v>
+      </c>
+      <c r="R12">
+        <v>0.200669334693</v>
+      </c>
+      <c r="S12">
+        <v>0.01954169528420133</v>
+      </c>
+      <c r="T12">
+        <v>0.01954169528420134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.04655433333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.139663</v>
+      </c>
+      <c r="I13">
+        <v>0.2402601759163528</v>
+      </c>
+      <c r="J13">
+        <v>0.2402601759163529</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.1116203333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.334861</v>
+      </c>
+      <c r="O13">
+        <v>0.01895594202983873</v>
+      </c>
+      <c r="P13">
+        <v>0.01895594202983874</v>
+      </c>
+      <c r="Q13">
+        <v>0.005196410204777778</v>
+      </c>
+      <c r="R13">
+        <v>0.046767691843</v>
+      </c>
+      <c r="S13">
+        <v>0.004554357966749241</v>
+      </c>
+      <c r="T13">
+        <v>0.004554357966749242</v>
       </c>
     </row>
   </sheetData>
